--- a/Log_INVplus.xlsx
+++ b/Log_INVplus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Наименование процесса</x:t>
   </x:si>
@@ -66,6 +66,21 @@
   </x:si>
   <x:si>
     <x:t>OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход в систему</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход в товарный запас</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT OK</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1158,94 +1173,238 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s"/>
-      <x:c r="B7" s="2" t="s"/>
-      <x:c r="C7" s="3" t="s"/>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="4" t="s"/>
+      <x:c r="A7" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="4">
+        <x:v>45351.6903892477</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="2" t="s"/>
-      <x:c r="C8" s="3" t="s"/>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="4" t="s"/>
+      <x:c r="A8" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="4">
+        <x:v>45351.6903893403</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s"/>
-      <x:c r="B9" s="2" t="s"/>
-      <x:c r="C9" s="3" t="s"/>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="4" t="s"/>
+      <x:c r="A9" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G9" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H9" s="4">
+        <x:v>45351.6904646528</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s"/>
-      <x:c r="B10" s="2" t="s"/>
-      <x:c r="C10" s="3" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="4" t="s"/>
+      <x:c r="A10" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G10" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H10" s="4">
+        <x:v>45351.7185479051</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s"/>
-      <x:c r="B11" s="2" t="s"/>
-      <x:c r="C11" s="3" t="s"/>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s"/>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="3" t="s"/>
-      <x:c r="H11" s="4" t="s"/>
+      <x:c r="A11" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G11" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H11" s="4">
+        <x:v>45351.7186543634</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s"/>
-      <x:c r="B12" s="2" t="s"/>
-      <x:c r="C12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s"/>
-      <x:c r="F12" s="2" t="s"/>
-      <x:c r="G12" s="3" t="s"/>
-      <x:c r="H12" s="4" t="s"/>
+      <x:c r="A12" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H12" s="4">
+        <x:v>45351.7224169792</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="2" t="s"/>
-      <x:c r="B13" s="2" t="s"/>
-      <x:c r="C13" s="3" t="s"/>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s"/>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="3" t="s"/>
-      <x:c r="H13" s="4" t="s"/>
+      <x:c r="A13" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G13" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H13" s="4">
+        <x:v>45351.7225006481</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="2" t="s"/>
-      <x:c r="B14" s="2" t="s"/>
-      <x:c r="C14" s="3" t="s"/>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s"/>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="3" t="s"/>
-      <x:c r="H14" s="4" t="s"/>
+      <x:c r="A14" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E14" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G14" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H14" s="4">
+        <x:v>45351.7316674421</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="2" t="s"/>
-      <x:c r="B15" s="2" t="s"/>
-      <x:c r="C15" s="3" t="s"/>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s"/>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="3" t="s"/>
-      <x:c r="H15" s="4" t="s"/>
+      <x:c r="A15" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E15" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G15" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H15" s="4">
+        <x:v>45351.7317742824</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Log_INVplus.xlsx
+++ b/Log_INVplus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <x:si>
     <x:t>Наименование процесса</x:t>
   </x:si>
@@ -81,6 +81,21 @@
   </x:si>
   <x:si>
     <x:t>NOT OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вход в справочник партий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Новая партия успешно добавлена</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1361,8 +1376,8 @@
       <x:c r="B14" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C14" s="3" t="n">
-        <x:v>1</x:v>
+      <x:c r="C14" s="3" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
         <x:v>11</x:v>
@@ -1387,8 +1402,8 @@
       <x:c r="B15" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C15" s="3" t="n">
-        <x:v>2</x:v>
+      <x:c r="C15" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
         <x:v>11</x:v>
@@ -1404,6 +1419,838 @@
       </x:c>
       <x:c r="H15" s="4">
         <x:v>45351.7317742824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E16" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="4">
+        <x:v>45351.8865319329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E17" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G17" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H17" s="4">
+        <x:v>45351.8865628357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E18" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G18" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H18" s="4">
+        <x:v>45351.8868678241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E19" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G19" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="4">
+        <x:v>45351.8869715625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E20" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G20" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="4">
+        <x:v>45351.8968027199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G21" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="4">
+        <x:v>45351.8968378935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D22" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G22" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H22" s="4">
+        <x:v>45351.8971384028</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9">
+      <x:c r="A23" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D23" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E23" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G23" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H23" s="4">
+        <x:v>45351.8972224421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9">
+      <x:c r="A24" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D24" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E24" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G24" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H24" s="4">
+        <x:v>45351.9016386574</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9">
+      <x:c r="A25" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D25" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E25" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G25" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H25" s="4">
+        <x:v>45351.901670463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9">
+      <x:c r="A26" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D26" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E26" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G26" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H26" s="4">
+        <x:v>45351.9019654861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:9">
+      <x:c r="A27" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E27" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G27" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H27" s="4">
+        <x:v>45351.9020489583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:9">
+      <x:c r="A28" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D28" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E28" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G28" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H28" s="4">
+        <x:v>45351.9090484491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:9">
+      <x:c r="A29" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E29" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G29" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H29" s="4">
+        <x:v>45351.9090774653</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:9">
+      <x:c r="A30" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C30" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D30" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E30" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G30" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H30" s="4">
+        <x:v>45351.9093691551</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:9">
+      <x:c r="A31" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E31" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G31" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H31" s="4">
+        <x:v>45351.9094516782</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:9">
+      <x:c r="A32" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D32" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E32" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G32" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H32" s="4">
+        <x:v>45351.9132244213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:9">
+      <x:c r="A33" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D33" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E33" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G33" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H33" s="4">
+        <x:v>45351.9132550463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:9">
+      <x:c r="A34" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D34" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E34" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G34" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H34" s="4">
+        <x:v>45351.9135441898</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:9">
+      <x:c r="A35" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C35" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D35" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E35" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G35" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H35" s="4">
+        <x:v>45351.9136208333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:9">
+      <x:c r="A36" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C36" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D36" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E36" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G36" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H36" s="4">
+        <x:v>45351.9179115162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:9">
+      <x:c r="A37" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C37" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D37" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E37" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G37" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H37" s="4">
+        <x:v>45351.9179426736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:9">
+      <x:c r="A38" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D38" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E38" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G38" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H38" s="4">
+        <x:v>45351.9182365509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:9">
+      <x:c r="A39" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D39" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E39" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G39" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H39" s="4">
+        <x:v>45351.9183201968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:9">
+      <x:c r="A40" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D40" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E40" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G40" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H40" s="4">
+        <x:v>45351.9199839005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:9">
+      <x:c r="A41" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C41" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D41" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E41" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G41" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H41" s="4">
+        <x:v>45351.9200090509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
+      <x:c r="A42" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C42" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D42" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E42" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G42" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H42" s="4">
+        <x:v>45351.9203073843</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:9">
+      <x:c r="A43" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C43" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D43" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E43" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G43" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H43" s="4">
+        <x:v>45351.9203890625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
+      <x:c r="A44" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C44" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D44" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E44" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G44" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H44" s="4">
+        <x:v>45351.9281145255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
+      <x:c r="A45" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C45" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D45" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E45" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H45" s="4">
+        <x:v>45351.9281476852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:9">
+      <x:c r="A46" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C46" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D46" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E46" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G46" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H46" s="4">
+        <x:v>45351.9284490394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
+      <x:c r="A47" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C47" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D47" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E47" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G47" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H47" s="4">
+        <x:v>45351.9285399306</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Log_INVplus.xlsx
+++ b/Log_INVplus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Наименование процесса</x:t>
   </x:si>
@@ -96,6 +96,9 @@
   </x:si>
   <x:si>
     <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Складирование новой паллеты</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2156,8 +2159,8 @@
       <x:c r="B44" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C44" s="3" t="n">
-        <x:v>1</x:v>
+      <x:c r="C44" s="3" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D44" s="3" t="s">
         <x:v>11</x:v>
@@ -2182,8 +2185,8 @@
       <x:c r="B45" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C45" s="3" t="n">
-        <x:v>2</x:v>
+      <x:c r="C45" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D45" s="3" t="s">
         <x:v>11</x:v>
@@ -2208,8 +2211,8 @@
       <x:c r="B46" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C46" s="3" t="n">
-        <x:v>3</x:v>
+      <x:c r="C46" s="3" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D46" s="3" t="s">
         <x:v>11</x:v>
@@ -2234,8 +2237,8 @@
       <x:c r="B47" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C47" s="3" t="n">
-        <x:v>4</x:v>
+      <x:c r="C47" s="3" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D47" s="3" t="s">
         <x:v>11</x:v>
@@ -2251,6 +2254,1228 @@
       </x:c>
       <x:c r="H47" s="4">
         <x:v>45351.9285399306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D48" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E48" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G48" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H48" s="4">
+        <x:v>45351.9393715162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C49" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D49" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E49" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G49" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H49" s="4">
+        <x:v>45351.9394096065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9">
+      <x:c r="A50" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C50" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D50" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E50" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G50" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H50" s="4">
+        <x:v>45351.939706331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:9">
+      <x:c r="A51" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C51" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D51" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E51" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G51" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H51" s="4">
+        <x:v>45351.9397984606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:9">
+      <x:c r="A52" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C52" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D52" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E52" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G52" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H52" s="4">
+        <x:v>45351.9569104977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:9">
+      <x:c r="A53" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C53" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D53" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E53" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G53" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H53" s="4">
+        <x:v>45351.9569394792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:9">
+      <x:c r="A54" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C54" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D54" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E54" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F54" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G54" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H54" s="4">
+        <x:v>45351.9572223611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9">
+      <x:c r="A55" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C55" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D55" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E55" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F55" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G55" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H55" s="4">
+        <x:v>45351.9572952778</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9">
+      <x:c r="A56" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C56" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D56" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E56" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G56" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H56" s="4">
+        <x:v>45351.959644838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9">
+      <x:c r="A57" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C57" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D57" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E57" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G57" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H57" s="4">
+        <x:v>45351.9596713194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
+      <x:c r="A58" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C58" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D58" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E58" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G58" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H58" s="4">
+        <x:v>45351.9599628704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
+      <x:c r="A59" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C59" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D59" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E59" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G59" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H59" s="4">
+        <x:v>45351.960035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
+      <x:c r="A60" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C60" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D60" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E60" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G60" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H60" s="4">
+        <x:v>45351.9619271875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
+      <x:c r="A61" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C61" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D61" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E61" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G61" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H61" s="4">
+        <x:v>45351.9619554861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
+      <x:c r="A62" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C62" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D62" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E62" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F62" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G62" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H62" s="4">
+        <x:v>45351.9622514236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
+      <x:c r="A63" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C63" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D63" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E63" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F63" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G63" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H63" s="4">
+        <x:v>45351.9623313194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:9">
+      <x:c r="A64" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C64" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D64" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E64" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F64" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G64" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H64" s="4">
+        <x:v>45351.9642474421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:9">
+      <x:c r="A65" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C65" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D65" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E65" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F65" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G65" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H65" s="4">
+        <x:v>45351.9642760185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:9">
+      <x:c r="A66" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C66" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D66" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E66" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F66" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G66" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H66" s="4">
+        <x:v>45351.9645658333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:9">
+      <x:c r="A67" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C67" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D67" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E67" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F67" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G67" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H67" s="4">
+        <x:v>45351.9646474769</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:9">
+      <x:c r="A68" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C68" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D68" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E68" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F68" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G68" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H68" s="4">
+        <x:v>45351.9728298958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:9">
+      <x:c r="A69" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C69" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D69" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E69" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F69" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G69" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H69" s="4">
+        <x:v>45351.9728571528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:9">
+      <x:c r="A70" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C70" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D70" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E70" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F70" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G70" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H70" s="4">
+        <x:v>45351.9731380903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:9">
+      <x:c r="A71" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C71" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D71" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E71" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F71" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G71" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H71" s="4">
+        <x:v>45351.9732214468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:9">
+      <x:c r="A72" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C72" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D72" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E72" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F72" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G72" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H72" s="4">
+        <x:v>45351.975679375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:9">
+      <x:c r="A73" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C73" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D73" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E73" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F73" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G73" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H73" s="4">
+        <x:v>45351.9757131713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:9">
+      <x:c r="A74" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C74" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D74" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E74" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F74" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G74" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H74" s="4">
+        <x:v>45351.9760114468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:9">
+      <x:c r="A75" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C75" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D75" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E75" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F75" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G75" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H75" s="4">
+        <x:v>45351.9760978357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:9">
+      <x:c r="A76" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C76" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D76" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E76" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F76" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G76" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H76" s="4">
+        <x:v>45351.9981452662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:9">
+      <x:c r="A77" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C77" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D77" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E77" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F77" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G77" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H77" s="4">
+        <x:v>45351.9981764236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:9">
+      <x:c r="A78" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C78" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D78" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E78" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F78" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G78" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H78" s="4">
+        <x:v>45351.9984700463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:9">
+      <x:c r="A79" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C79" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D79" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E79" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F79" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G79" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H79" s="4">
+        <x:v>45351.9985414931</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:9">
+      <x:c r="A80" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C80" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D80" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E80" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F80" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G80" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H80" s="4">
+        <x:v>45352.0027274074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:9">
+      <x:c r="A81" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C81" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D81" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E81" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F81" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G81" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H81" s="4">
+        <x:v>45352.0027566319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:9">
+      <x:c r="A82" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C82" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D82" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E82" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F82" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G82" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H82" s="4">
+        <x:v>45352.0030416319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:9">
+      <x:c r="A83" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C83" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D83" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E83" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F83" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G83" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H83" s="4">
+        <x:v>45352.0031160417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:9">
+      <x:c r="A84" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C84" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D84" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E84" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F84" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G84" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H84" s="4">
+        <x:v>45352.0037825116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:9">
+      <x:c r="A85" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C85" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D85" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E85" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F85" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G85" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H85" s="4">
+        <x:v>45352.0054116088</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:9">
+      <x:c r="A86" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C86" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D86" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E86" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F86" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G86" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H86" s="4">
+        <x:v>45352.0054402083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:9">
+      <x:c r="A87" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C87" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D87" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E87" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F87" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G87" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H87" s="4">
+        <x:v>45352.0057282407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:9">
+      <x:c r="A88" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C88" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D88" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E88" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F88" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G88" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H88" s="4">
+        <x:v>45352.0058131481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:9">
+      <x:c r="A89" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C89" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D89" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E89" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F89" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G89" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H89" s="4">
+        <x:v>45352.0067230787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:9">
+      <x:c r="A90" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C90" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D90" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E90" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F90" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G90" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H90" s="4">
+        <x:v>45352.0080872338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:9">
+      <x:c r="A91" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C91" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D91" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E91" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F91" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G91" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H91" s="4">
+        <x:v>45352.0081167245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:9">
+      <x:c r="A92" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B92" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C92" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D92" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E92" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F92" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G92" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H92" s="4">
+        <x:v>45352.0084062384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:9">
+      <x:c r="A93" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B93" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C93" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D93" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E93" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F93" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G93" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H93" s="4">
+        <x:v>45352.0084930324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:9">
+      <x:c r="A94" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C94" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D94" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E94" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F94" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G94" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H94" s="4">
+        <x:v>45352.0094219907</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Log_INVplus.xlsx
+++ b/Log_INVplus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>Наименование процесса</x:t>
   </x:si>
@@ -99,6 +99,18 @@
   </x:si>
   <x:si>
     <x:t>Складирование новой паллеты</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Корректировка паллеты в меньшую сторону</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Корректировка паллеты в большую сторону</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3355,8 +3367,8 @@
       <x:c r="B90" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C90" s="3" t="n">
-        <x:v>1</x:v>
+      <x:c r="C90" s="3" t="s">
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D90" s="3" t="s">
         <x:v>11</x:v>
@@ -3381,8 +3393,8 @@
       <x:c r="B91" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C91" s="3" t="n">
-        <x:v>2</x:v>
+      <x:c r="C91" s="3" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D91" s="3" t="s">
         <x:v>11</x:v>
@@ -3407,8 +3419,8 @@
       <x:c r="B92" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C92" s="3" t="n">
-        <x:v>3</x:v>
+      <x:c r="C92" s="3" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D92" s="3" t="s">
         <x:v>11</x:v>
@@ -3433,8 +3445,8 @@
       <x:c r="B93" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C93" s="3" t="n">
-        <x:v>4</x:v>
+      <x:c r="C93" s="3" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D93" s="3" t="s">
         <x:v>11</x:v>
@@ -3459,8 +3471,8 @@
       <x:c r="B94" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C94" s="3" t="n">
-        <x:v>5</x:v>
+      <x:c r="C94" s="3" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D94" s="3" t="s">
         <x:v>11</x:v>
@@ -3476,6 +3488,1306 @@
       </x:c>
       <x:c r="H94" s="4">
         <x:v>45352.0094219907</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:9">
+      <x:c r="A95" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C95" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D95" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E95" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F95" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G95" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H95" s="4">
+        <x:v>45352.4467734144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:9">
+      <x:c r="A96" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C96" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D96" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E96" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F96" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G96" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H96" s="4">
+        <x:v>45352.4468384838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:9">
+      <x:c r="A97" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C97" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E97" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F97" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G97" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H97" s="4">
+        <x:v>45352.4471282292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:9">
+      <x:c r="A98" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B98" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C98" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D98" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E98" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F98" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G98" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H98" s="4">
+        <x:v>45352.447208044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:9">
+      <x:c r="A99" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C99" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D99" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E99" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F99" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G99" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H99" s="4">
+        <x:v>45352.4481448958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:9">
+      <x:c r="A100" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C100" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D100" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E100" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F100" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G100" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H100" s="4">
+        <x:v>45352.4495621412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:9">
+      <x:c r="A101" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C101" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D101" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E101" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F101" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G101" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H101" s="4">
+        <x:v>45352.4495935301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:9">
+      <x:c r="A102" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C102" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D102" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E102" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F102" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G102" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H102" s="4">
+        <x:v>45352.4498742477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:9">
+      <x:c r="A103" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C103" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D103" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E103" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F103" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G103" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H103" s="4">
+        <x:v>45352.4499596412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:9">
+      <x:c r="A104" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B104" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C104" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D104" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E104" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F104" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G104" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H104" s="4">
+        <x:v>45352.4508890741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:9">
+      <x:c r="A105" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B105" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C105" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D105" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E105" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F105" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G105" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H105" s="4">
+        <x:v>45352.4580903472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:9">
+      <x:c r="A106" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B106" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C106" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D106" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E106" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F106" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G106" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H106" s="4">
+        <x:v>45352.4581375926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:9">
+      <x:c r="A107" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B107" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C107" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D107" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E107" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F107" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G107" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H107" s="4">
+        <x:v>45352.4584476736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:9">
+      <x:c r="A108" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B108" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C108" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D108" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E108" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F108" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G108" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H108" s="4">
+        <x:v>45352.4585386343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:9">
+      <x:c r="A109" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B109" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C109" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D109" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E109" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F109" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G109" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H109" s="4">
+        <x:v>45352.4595098264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:9">
+      <x:c r="A110" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B110" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C110" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D110" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E110" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F110" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G110" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H110" s="4">
+        <x:v>45352.4680898495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:9">
+      <x:c r="A111" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B111" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C111" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D111" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E111" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F111" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G111" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H111" s="4">
+        <x:v>45352.4681212731</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:9">
+      <x:c r="A112" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B112" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C112" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D112" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E112" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F112" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G112" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H112" s="4">
+        <x:v>45352.4684393171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:9">
+      <x:c r="A113" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B113" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C113" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D113" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E113" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F113" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G113" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H113" s="4">
+        <x:v>45352.4685245255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:9">
+      <x:c r="A114" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B114" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C114" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D114" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E114" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F114" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G114" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H114" s="4">
+        <x:v>45352.4695271181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:9">
+      <x:c r="A115" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B115" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C115" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D115" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E115" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F115" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G115" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H115" s="4">
+        <x:v>45352.4710697917</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:9">
+      <x:c r="A116" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B116" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C116" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D116" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E116" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F116" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G116" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H116" s="4">
+        <x:v>45352.4711035185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:9">
+      <x:c r="A117" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B117" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C117" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D117" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E117" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F117" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G117" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H117" s="4">
+        <x:v>45352.471406956</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:9">
+      <x:c r="A118" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B118" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C118" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D118" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E118" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F118" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G118" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H118" s="4">
+        <x:v>45352.4714931597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:9">
+      <x:c r="A119" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B119" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C119" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D119" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E119" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F119" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G119" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H119" s="4">
+        <x:v>45352.4724749884</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:9">
+      <x:c r="A120" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B120" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C120" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D120" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E120" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F120" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G120" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H120" s="4">
+        <x:v>45352.4787175231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:9">
+      <x:c r="A121" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B121" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C121" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D121" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E121" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F121" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G121" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H121" s="4">
+        <x:v>45352.4787467708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:9">
+      <x:c r="A122" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C122" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D122" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E122" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F122" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G122" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H122" s="4">
+        <x:v>45352.4790455208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:9">
+      <x:c r="A123" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C123" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D123" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E123" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F123" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G123" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H123" s="4">
+        <x:v>45352.4791260532</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:9">
+      <x:c r="A124" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B124" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C124" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D124" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E124" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F124" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G124" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H124" s="4">
+        <x:v>45352.4800876273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:9">
+      <x:c r="A125" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B125" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C125" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D125" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E125" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F125" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G125" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H125" s="4">
+        <x:v>45352.4843207292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:9">
+      <x:c r="A126" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B126" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C126" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D126" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E126" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F126" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G126" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H126" s="4">
+        <x:v>45352.48435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:9">
+      <x:c r="A127" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B127" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C127" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D127" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E127" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F127" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G127" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H127" s="4">
+        <x:v>45352.484634294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:9">
+      <x:c r="A128" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C128" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D128" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E128" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F128" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G128" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H128" s="4">
+        <x:v>45352.4847267014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:9">
+      <x:c r="A129" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B129" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C129" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D129" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E129" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F129" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G129" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H129" s="4">
+        <x:v>45352.4857025463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:9">
+      <x:c r="A130" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B130" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C130" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D130" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E130" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F130" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G130" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H130" s="4">
+        <x:v>45352.4859083565</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:9">
+      <x:c r="A131" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B131" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C131" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D131" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E131" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F131" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G131" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H131" s="4">
+        <x:v>45352.4923229745</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:9">
+      <x:c r="A132" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B132" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C132" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D132" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E132" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F132" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G132" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H132" s="4">
+        <x:v>45352.4923580093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:9">
+      <x:c r="A133" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B133" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C133" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D133" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E133" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F133" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G133" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H133" s="4">
+        <x:v>45352.4926529861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:9">
+      <x:c r="A134" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B134" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C134" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D134" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E134" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F134" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G134" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H134" s="4">
+        <x:v>45352.4927491319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:9">
+      <x:c r="A135" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B135" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C135" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D135" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E135" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F135" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G135" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H135" s="4">
+        <x:v>45352.4936122106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:9">
+      <x:c r="A136" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B136" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C136" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D136" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E136" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F136" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G136" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H136" s="4">
+        <x:v>45352.4938351736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:9">
+      <x:c r="A137" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B137" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C137" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D137" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E137" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F137" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G137" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H137" s="4">
+        <x:v>45352.4940318518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:9">
+      <x:c r="A138" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B138" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C138" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D138" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E138" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F138" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G138" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H138" s="4">
+        <x:v>45352.4979376157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:9">
+      <x:c r="A139" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B139" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C139" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D139" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E139" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F139" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G139" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H139" s="4">
+        <x:v>45352.4979749306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:9">
+      <x:c r="A140" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B140" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C140" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D140" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E140" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F140" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G140" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H140" s="4">
+        <x:v>45352.4982720023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:9">
+      <x:c r="A141" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B141" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C141" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D141" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E141" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F141" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G141" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H141" s="4">
+        <x:v>45352.4983686458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:9">
+      <x:c r="A142" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B142" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C142" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D142" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E142" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F142" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G142" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H142" s="4">
+        <x:v>45352.4992333449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:9">
+      <x:c r="A143" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B143" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C143" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D143" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E143" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F143" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G143" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H143" s="4">
+        <x:v>45352.4994225579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:9">
+      <x:c r="A144" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B144" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C144" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D144" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E144" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F144" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G144" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H144" s="4">
+        <x:v>45352.4996114815</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
